--- a/sectionA_1000.xlsx
+++ b/sectionA_1000.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruchirpurohit/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruchirpurohit/Desktop/ASOC App/v8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429C0610-1EF8-6C4E-BD9D-D6C1546BC1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EFCEC7-7DCB-1648-B1A4-6C2065381D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="3820" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="274">
   <si>
     <t>ID</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Answer</t>
   </si>
   <si>
-    <t>Topic</t>
-  </si>
-  <si>
     <t>Skywave propagation is due to reflection from</t>
   </si>
   <si>
@@ -218,603 +215,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>Propagation</t>
-  </si>
-  <si>
-    <t>Measurements</t>
-  </si>
-  <si>
-    <t>Components</t>
-  </si>
-  <si>
-    <t>Modulation</t>
-  </si>
-  <si>
-    <t>Safety</t>
-  </si>
-  <si>
-    <t>Amplifiers</t>
-  </si>
-  <si>
-    <t>Basic Electronics</t>
-  </si>
-  <si>
-    <t>Circuits</t>
-  </si>
-  <si>
-    <t>a) Self Inductance</t>
-  </si>
-  <si>
-    <t>b) Mutual Inductance</t>
-  </si>
-  <si>
-    <t>c) Electromagnetic Induction</t>
-  </si>
-  <si>
-    <t>d) Faraday’s Law</t>
-  </si>
-  <si>
-    <t>a) f = 1 / (2π√LC)</t>
-  </si>
-  <si>
-    <t>b) f = 1 / (LC)</t>
-  </si>
-  <si>
-    <t>c) f = 2π√LC</t>
-  </si>
-  <si>
-    <t>d) f = 1 / √LC</t>
-  </si>
-  <si>
-    <t>a) Passive device</t>
-  </si>
-  <si>
-    <t>b) Active device</t>
-  </si>
-  <si>
-    <t>c) Power source</t>
-  </si>
-  <si>
-    <t>d) Load</t>
-  </si>
-  <si>
-    <t>a) 10 Hz</t>
-  </si>
-  <si>
-    <t>b) 50 Hz</t>
-  </si>
-  <si>
-    <t>c) 100 Hz</t>
-  </si>
-  <si>
-    <t>d) 100/2π Hz</t>
-  </si>
-  <si>
-    <t>a) Low</t>
-  </si>
-  <si>
-    <t>b) Very High</t>
-  </si>
-  <si>
-    <t>c) Zero</t>
-  </si>
-  <si>
-    <t>d) Medium</t>
-  </si>
-  <si>
-    <t>a) Resistance</t>
-  </si>
-  <si>
-    <t>b) Inverse of Resistance</t>
-  </si>
-  <si>
-    <t>c) Capacitance</t>
-  </si>
-  <si>
-    <t>d) Inductance</t>
-  </si>
-  <si>
-    <t>a) P = V/R</t>
-  </si>
-  <si>
-    <t>b) P = VI</t>
-  </si>
-  <si>
-    <t>c) P = I^2R</t>
-  </si>
-  <si>
-    <t>d) both b &amp; c</t>
-  </si>
-  <si>
-    <t>a) Ohm's Law</t>
-  </si>
-  <si>
-    <t>b) Faraday's law</t>
-  </si>
-  <si>
-    <t>c) Coulomb's Law</t>
-  </si>
-  <si>
-    <t>d) Ampere's Law</t>
-  </si>
-  <si>
-    <t>a) The sum of current is zero</t>
-  </si>
-  <si>
-    <t>b) The sum of voltage sources is zero</t>
-  </si>
-  <si>
-    <t>c) The sum of all the voltage drops is equal to applied voltage</t>
-  </si>
-  <si>
-    <t>d) Current equals voltage divided by resistance</t>
-  </si>
-  <si>
-    <t>a) Transverse</t>
-  </si>
-  <si>
-    <t>b) Longitudinal</t>
-  </si>
-  <si>
-    <t>c) Acoustic</t>
-  </si>
-  <si>
-    <t>d) None of these</t>
-  </si>
-  <si>
-    <t>a) 60 Hz</t>
-  </si>
-  <si>
-    <t>b) 230 V</t>
-  </si>
-  <si>
-    <t>c) 50 Hz</t>
-  </si>
-  <si>
-    <t>d) 110 V</t>
-  </si>
-  <si>
-    <t>a) Ammeter</t>
-  </si>
-  <si>
-    <t>b) Voltmeter</t>
-  </si>
-  <si>
-    <t>c) Wattmeter</t>
-  </si>
-  <si>
-    <t>d) Oscilloscope</t>
-  </si>
-  <si>
-    <t>a) Volt</t>
-  </si>
-  <si>
-    <t>b) Ampere</t>
-  </si>
-  <si>
-    <t>c) Coulomb</t>
-  </si>
-  <si>
-    <t>d) Ohm</t>
-  </si>
-  <si>
-    <t>a) V = IR</t>
-  </si>
-  <si>
-    <t>b) P = IV</t>
-  </si>
-  <si>
-    <t>c) I = VR</t>
-  </si>
-  <si>
-    <t>d) R = I/V</t>
-  </si>
-  <si>
-    <t>a) --| |--</t>
-  </si>
-  <si>
-    <t>b) ---/\/\/\---</t>
-  </si>
-  <si>
-    <t>c) ---||---</t>
-  </si>
-  <si>
-    <t>d) ---O O---</t>
-  </si>
-  <si>
-    <t>a) Resistor</t>
-  </si>
-  <si>
-    <t>b) Capacitor</t>
-  </si>
-  <si>
-    <t>c) Inductor</t>
-  </si>
-  <si>
-    <t>d) Transformer</t>
-  </si>
-  <si>
-    <t>c) Coil</t>
-  </si>
-  <si>
-    <t>d) Diode</t>
-  </si>
-  <si>
-    <t>a) Copper</t>
-  </si>
-  <si>
-    <t>b) Silicon</t>
-  </si>
-  <si>
-    <t>c) Gold</t>
-  </si>
-  <si>
-    <t>d) Iron</t>
-  </si>
-  <si>
-    <t>a) Zener diode</t>
-  </si>
-  <si>
-    <t>b) Rectifier diode</t>
-  </si>
-  <si>
-    <t>c) Schottky diode</t>
-  </si>
-  <si>
-    <t>d) LED</t>
-  </si>
-  <si>
-    <t>a) Common base</t>
-  </si>
-  <si>
-    <t>b) Common emitter</t>
-  </si>
-  <si>
-    <t>c) Common collector</t>
-  </si>
-  <si>
-    <t>a) Henry</t>
-  </si>
-  <si>
-    <t>b) Farad</t>
-  </si>
-  <si>
-    <t>c) Ohm</t>
-  </si>
-  <si>
-    <t>d) Tesla</t>
-  </si>
-  <si>
-    <t>a) Transformer</t>
-  </si>
-  <si>
-    <t>b) Oscillator</t>
-  </si>
-  <si>
-    <t>c) Rectifier</t>
-  </si>
-  <si>
-    <t>d) Amplifier</t>
-  </si>
-  <si>
-    <t>a) Measure current</t>
-  </si>
-  <si>
-    <t>b) Measure voltage</t>
-  </si>
-  <si>
-    <t>c) Display waveforms</t>
-  </si>
-  <si>
-    <t>d) Convert DC to AC</t>
-  </si>
-  <si>
-    <t>a) Capacitor</t>
-  </si>
-  <si>
-    <t>b) Inductor</t>
-  </si>
-  <si>
-    <t>c) Resistor</t>
-  </si>
-  <si>
-    <t>a) Voltage</t>
-  </si>
-  <si>
-    <t>b) Current</t>
-  </si>
-  <si>
-    <t>c) Resistance</t>
-  </si>
-  <si>
-    <t>d) All of the above</t>
-  </si>
-  <si>
-    <t>a) Match impedance</t>
-  </si>
-  <si>
-    <t>b) Boost signal</t>
-  </si>
-  <si>
-    <t>c) Block DC</t>
-  </si>
-  <si>
-    <t>d) Filter noise</t>
-  </si>
-  <si>
-    <t>a) &lt;50%</t>
-  </si>
-  <si>
-    <t>b) 50–60%</t>
-  </si>
-  <si>
-    <t>c) 70–75%</t>
-  </si>
-  <si>
-    <t>d) &gt;80%</t>
-  </si>
-  <si>
-    <t>a) Ratio of carrier to sideband</t>
-  </si>
-  <si>
-    <t>b) Ratio of audio to carrier amplitude</t>
-  </si>
-  <si>
-    <t>c) Frequency divided by bandwidth</t>
-  </si>
-  <si>
-    <t>a) Increases</t>
-  </si>
-  <si>
-    <t>b) Decreases</t>
-  </si>
-  <si>
-    <t>c) Remains constant</t>
-  </si>
-  <si>
-    <t>d) Becomes infinite</t>
-  </si>
-  <si>
-    <t>a) Weber</t>
-  </si>
-  <si>
-    <t>b) Tesla</t>
-  </si>
-  <si>
-    <t>c) Gauss</t>
-  </si>
-  <si>
-    <t>d) Henry</t>
-  </si>
-  <si>
-    <t>a) 0°</t>
-  </si>
-  <si>
-    <t>b) 90°</t>
-  </si>
-  <si>
-    <t>c) 180°</t>
-  </si>
-  <si>
-    <t>d) 45°</t>
-  </si>
-  <si>
-    <t>a) Ohmmeter</t>
-  </si>
-  <si>
-    <t>b) LCR meter</t>
-  </si>
-  <si>
-    <t>c) Oscilloscope</t>
-  </si>
-  <si>
-    <t>d) Voltmeter</t>
-  </si>
-  <si>
-    <t>a) Yellow, Violet, Yellow</t>
-  </si>
-  <si>
-    <t>b) Yellow, Violet, Orange</t>
-  </si>
-  <si>
-    <t>c) Yellow, Violet, Red</t>
-  </si>
-  <si>
-    <t>d) Yellow, Violet, Green</t>
-  </si>
-  <si>
-    <t>a) Rectifiers</t>
-  </si>
-  <si>
-    <t>b) Filters</t>
-  </si>
-  <si>
-    <t>c) PLL circuits</t>
-  </si>
-  <si>
-    <t>d) Current regulators</t>
-  </si>
-  <si>
-    <t>a) Time domain analysis</t>
-  </si>
-  <si>
-    <t>b) Frequency calibration</t>
-  </si>
-  <si>
-    <t>c) Impedance matching</t>
-  </si>
-  <si>
-    <t>d) Noise reduction</t>
-  </si>
-  <si>
-    <t>a) 1.0</t>
-  </si>
-  <si>
-    <t>b) 0.482</t>
-  </si>
-  <si>
-    <t>c) 0.707</t>
-  </si>
-  <si>
-    <t>d) 0.2</t>
-  </si>
-  <si>
-    <t>a) 360°</t>
-  </si>
-  <si>
-    <t>b) 180°</t>
-  </si>
-  <si>
-    <t>c) 90°</t>
-  </si>
-  <si>
-    <t>d) 270°</t>
-  </si>
-  <si>
-    <t>a) Block AC</t>
-  </si>
-  <si>
-    <t>b) Stabilize DC bias</t>
-  </si>
-  <si>
-    <t>d) Convert AC to DC</t>
-  </si>
-  <si>
-    <t>a) R</t>
-  </si>
-  <si>
-    <t>b) L</t>
-  </si>
-  <si>
-    <t>c) C</t>
-  </si>
-  <si>
-    <t>d) All of these</t>
-  </si>
-  <si>
-    <t>a) Very low</t>
-  </si>
-  <si>
-    <t>b) High</t>
-  </si>
-  <si>
-    <t>d) Unity</t>
-  </si>
-  <si>
-    <t>a) Magnetic induction</t>
-  </si>
-  <si>
-    <t>b) Thermoelectric effect</t>
-  </si>
-  <si>
-    <t>c) Piezoelectric effect</t>
-  </si>
-  <si>
-    <t>d) Photoelectric effect</t>
-  </si>
-  <si>
-    <t>a) Inductance</t>
-  </si>
-  <si>
-    <t>b) Capacitance</t>
-  </si>
-  <si>
-    <t>d) None</t>
-  </si>
-  <si>
-    <t>a) Dipole</t>
-  </si>
-  <si>
-    <t>b) Yagi</t>
-  </si>
-  <si>
-    <t>c) Loop</t>
-  </si>
-  <si>
-    <t>d) Whip</t>
-  </si>
-  <si>
-    <t>a) Increase power</t>
-  </si>
-  <si>
-    <t>b) Reduce impedance</t>
-  </si>
-  <si>
-    <t>c) Test transmitters without radiating RF</t>
-  </si>
-  <si>
-    <t>d) Improve modulation</t>
-  </si>
-  <si>
-    <t>a) Two antennas</t>
-  </si>
-  <si>
-    <t>b) No mixer</t>
-  </si>
-  <si>
-    <t>c) Intermediate frequency (IF)</t>
-  </si>
-  <si>
-    <t>d) Modulator only</t>
-  </si>
-  <si>
-    <t>a) Amplify gain</t>
-  </si>
-  <si>
-    <t>b) Maintain constant volume</t>
-  </si>
-  <si>
-    <t>c) Convert analog to digital</t>
-  </si>
-  <si>
-    <t>a) Band pass</t>
-  </si>
-  <si>
-    <t>b) Low pass</t>
-  </si>
-  <si>
-    <t>c) High pass</t>
-  </si>
-  <si>
-    <t>d) Notch</t>
-  </si>
-  <si>
-    <t>a) High Vce</t>
-  </si>
-  <si>
-    <t>b) Low Ic</t>
-  </si>
-  <si>
-    <t>c) High gain</t>
-  </si>
-  <si>
-    <t>d) Low Vce</t>
-  </si>
-  <si>
-    <t>a) AC traveling on surface of conductor</t>
-  </si>
-  <si>
-    <t>b) Insulation failure</t>
-  </si>
-  <si>
-    <t>c) Corona discharge</t>
-  </si>
-  <si>
-    <t>d) Magnetic losses</t>
-  </si>
-  <si>
-    <t>a) Increase amplitude</t>
-  </si>
-  <si>
-    <t>b) Reduce loading effect</t>
-  </si>
-  <si>
-    <t>c) Amplify current</t>
-  </si>
-  <si>
-    <t>d) Adjust gain</t>
-  </si>
-  <si>
     <t>The type of wave used in radio communication is</t>
   </si>
   <si>
@@ -966,6 +366,495 @@
   </si>
   <si>
     <t>The frequency of a sinusoidal signal v(t) = 10sin(100t) volts is</t>
+  </si>
+  <si>
+    <t>Self Inductance</t>
+  </si>
+  <si>
+    <t>Mutual Inductance</t>
+  </si>
+  <si>
+    <t>Electromagnetic Induction</t>
+  </si>
+  <si>
+    <t>Faraday’s Law</t>
+  </si>
+  <si>
+    <t>f = 1 / √LC</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>100/2π Hz</t>
+  </si>
+  <si>
+    <t>100 Hz</t>
+  </si>
+  <si>
+    <t>50 Hz</t>
+  </si>
+  <si>
+    <t>10 Hz</t>
+  </si>
+  <si>
+    <t>f = 2π√LC</t>
+  </si>
+  <si>
+    <t>f = 1 / (LC)</t>
+  </si>
+  <si>
+    <t>f = 1 / (2π√LC)</t>
+  </si>
+  <si>
+    <t>Passive device</t>
+  </si>
+  <si>
+    <t>Active device</t>
+  </si>
+  <si>
+    <t>Power source</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>both b &amp; c</t>
+  </si>
+  <si>
+    <t>Ampere's Law</t>
+  </si>
+  <si>
+    <t>Current equals voltage divided by resistance</t>
+  </si>
+  <si>
+    <t>None of these</t>
+  </si>
+  <si>
+    <t>110 V</t>
+  </si>
+  <si>
+    <t>Oscilloscope</t>
+  </si>
+  <si>
+    <t>R = I/V</t>
+  </si>
+  <si>
+    <t>---O O---</t>
+  </si>
+  <si>
+    <t>Transformer</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>Amplifier</t>
+  </si>
+  <si>
+    <t>Convert DC to AC</t>
+  </si>
+  <si>
+    <t>All of the above</t>
+  </si>
+  <si>
+    <t>Filter noise</t>
+  </si>
+  <si>
+    <t>&gt;80%</t>
+  </si>
+  <si>
+    <t>Becomes infinite</t>
+  </si>
+  <si>
+    <t>45°</t>
+  </si>
+  <si>
+    <t>Yellow, Violet, Green</t>
+  </si>
+  <si>
+    <t>Current regulators</t>
+  </si>
+  <si>
+    <t>Noise reduction</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>270°</t>
+  </si>
+  <si>
+    <t>Convert AC to DC</t>
+  </si>
+  <si>
+    <t>All of these</t>
+  </si>
+  <si>
+    <t>Unity</t>
+  </si>
+  <si>
+    <t>Photoelectric effect</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Whip</t>
+  </si>
+  <si>
+    <t>Improve modulation</t>
+  </si>
+  <si>
+    <t>Modulator only</t>
+  </si>
+  <si>
+    <t>Notch</t>
+  </si>
+  <si>
+    <t>Low Vce</t>
+  </si>
+  <si>
+    <t>Magnetic losses</t>
+  </si>
+  <si>
+    <t>Adjust gain</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>P = I^2R</t>
+  </si>
+  <si>
+    <t>Coulomb's Law</t>
+  </si>
+  <si>
+    <t>The sum of all the voltage drops is equal to applied voltage</t>
+  </si>
+  <si>
+    <t>Acoustic</t>
+  </si>
+  <si>
+    <t>Wattmeter</t>
+  </si>
+  <si>
+    <t>Coulomb</t>
+  </si>
+  <si>
+    <t>I = VR</t>
+  </si>
+  <si>
+    <t>---||---</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>Coil</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Schottky diode</t>
+  </si>
+  <si>
+    <t>Common collector</t>
+  </si>
+  <si>
+    <t>Rectifier</t>
+  </si>
+  <si>
+    <t>Display waveforms</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>Block DC</t>
+  </si>
+  <si>
+    <t>70–75%</t>
+  </si>
+  <si>
+    <t>Frequency divided by bandwidth</t>
+  </si>
+  <si>
+    <t>Remains constant</t>
+  </si>
+  <si>
+    <t>Gauss</t>
+  </si>
+  <si>
+    <t>180°</t>
+  </si>
+  <si>
+    <t>Yellow, Violet, Red</t>
+  </si>
+  <si>
+    <t>PLL circuits</t>
+  </si>
+  <si>
+    <t>Impedance matching</t>
+  </si>
+  <si>
+    <t>0.707</t>
+  </si>
+  <si>
+    <t>90°</t>
+  </si>
+  <si>
+    <t>Piezoelectric effect</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>Test transmitters without radiating RF</t>
+  </si>
+  <si>
+    <t>Intermediate frequency (IF)</t>
+  </si>
+  <si>
+    <t>Convert analog to digital</t>
+  </si>
+  <si>
+    <t>High pass</t>
+  </si>
+  <si>
+    <t>High gain</t>
+  </si>
+  <si>
+    <t>Corona discharge</t>
+  </si>
+  <si>
+    <t>Amplify current</t>
+  </si>
+  <si>
+    <t>Very High</t>
+  </si>
+  <si>
+    <t>Inverse of Resistance</t>
+  </si>
+  <si>
+    <t>P = VI</t>
+  </si>
+  <si>
+    <t>Faraday's law</t>
+  </si>
+  <si>
+    <t>The sum of voltage sources is zero</t>
+  </si>
+  <si>
+    <t>Longitudinal</t>
+  </si>
+  <si>
+    <t>230 V</t>
+  </si>
+  <si>
+    <t>P = IV</t>
+  </si>
+  <si>
+    <t>---/\/\/\---</t>
+  </si>
+  <si>
+    <t>Capacitor</t>
+  </si>
+  <si>
+    <t>Silicon</t>
+  </si>
+  <si>
+    <t>Rectifier diode</t>
+  </si>
+  <si>
+    <t>Common emitter</t>
+  </si>
+  <si>
+    <t>Oscillator</t>
+  </si>
+  <si>
+    <t>Measure voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Boost signal</t>
+  </si>
+  <si>
+    <t>50–60%</t>
+  </si>
+  <si>
+    <t>Ratio of audio to carrier amplitude</t>
+  </si>
+  <si>
+    <t>Decreases</t>
+  </si>
+  <si>
+    <t>LCR meter</t>
+  </si>
+  <si>
+    <t>Yellow, Violet, Orange</t>
+  </si>
+  <si>
+    <t>Filters</t>
+  </si>
+  <si>
+    <t>Frequency calibration</t>
+  </si>
+  <si>
+    <t>0.482</t>
+  </si>
+  <si>
+    <t>Stabilize DC bias</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Thermoelectric effect</t>
+  </si>
+  <si>
+    <t>Yagi</t>
+  </si>
+  <si>
+    <t>Reduce impedance</t>
+  </si>
+  <si>
+    <t>No mixer</t>
+  </si>
+  <si>
+    <t>Maintain constant volume</t>
+  </si>
+  <si>
+    <t>Low pass</t>
+  </si>
+  <si>
+    <t>Low Ic</t>
+  </si>
+  <si>
+    <t>Insulation failure</t>
+  </si>
+  <si>
+    <t>Reduce loading effect</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>P = V/R</t>
+  </si>
+  <si>
+    <t>Ohm's Law</t>
+  </si>
+  <si>
+    <t>The sum of current is zero</t>
+  </si>
+  <si>
+    <t>Transverse</t>
+  </si>
+  <si>
+    <t>60 Hz</t>
+  </si>
+  <si>
+    <t>V = IR</t>
+  </si>
+  <si>
+    <t>--| |--</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Zener diode</t>
+  </si>
+  <si>
+    <t>Common base</t>
+  </si>
+  <si>
+    <t>Measure current</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Match impedance</t>
+  </si>
+  <si>
+    <t>&lt;50%</t>
+  </si>
+  <si>
+    <t>Ratio of carrier to sideband</t>
+  </si>
+  <si>
+    <t>Increases</t>
+  </si>
+  <si>
+    <t>Weber</t>
+  </si>
+  <si>
+    <t>0°</t>
+  </si>
+  <si>
+    <t>Yellow, Violet, Yellow</t>
+  </si>
+  <si>
+    <t>Rectifiers</t>
+  </si>
+  <si>
+    <t>Time domain analysis</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>360°</t>
+  </si>
+  <si>
+    <t>Block AC</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Very low</t>
+  </si>
+  <si>
+    <t>Magnetic induction</t>
+  </si>
+  <si>
+    <t>Dipole</t>
+  </si>
+  <si>
+    <t>Increase power</t>
+  </si>
+  <si>
+    <t>Two antennas</t>
+  </si>
+  <si>
+    <t>Amplify gain</t>
+  </si>
+  <si>
+    <t>Band pass</t>
+  </si>
+  <si>
+    <t>High Vce</t>
+  </si>
+  <si>
+    <t>AC traveling on surface of conductor</t>
+  </si>
+  <si>
+    <t>Increase amplitude</t>
   </si>
 </sst>
 </file>
@@ -1342,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1353,10 +1242,9 @@
     <col min="2" max="2" width="45.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1378,383 +1266,350 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
       <c r="G3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
       <c r="G5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>269</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>268</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>267</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>265</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>238</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>201</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1762,22 +1617,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>264</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>202</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1785,22 +1640,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>263</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>239</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1808,22 +1663,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>262</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>240</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>204</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1831,22 +1686,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>261</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>241</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1854,22 +1709,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>206</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1877,22 +1732,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>309</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>243</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>207</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F22" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1900,22 +1755,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>308</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="F23" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1923,22 +1778,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>307</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="F24" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1946,22 +1801,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>306</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>244</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="F25" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1969,22 +1824,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>305</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="F26" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1992,22 +1847,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>304</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="E27" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="F27" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -2015,22 +1870,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>303</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="E28" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="F28" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -2038,22 +1893,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>302</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>246</v>
       </c>
       <c r="D29" t="s">
-        <v>136</v>
+        <v>211</v>
       </c>
       <c r="E29" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="F29" t="s">
         <v>138</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -2061,22 +1916,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" t="s">
         <v>139</v>
       </c>
-      <c r="D30" t="s">
-        <v>140</v>
-      </c>
-      <c r="E30" t="s">
-        <v>141</v>
-      </c>
-      <c r="F30" t="s">
-        <v>142</v>
-      </c>
       <c r="G30" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -2084,22 +1939,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>143</v>
+        <v>248</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>213</v>
       </c>
       <c r="E31" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F31" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -2107,22 +1962,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>299</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -2130,22 +1985,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>298</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D33" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="E33" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="F33" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2153,22 +2008,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>297</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>249</v>
       </c>
       <c r="D34" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="E34" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="F34" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -2176,22 +2031,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>296</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="D35" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="E35" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="F35" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -2199,22 +2054,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>295</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>250</v>
       </c>
       <c r="D36" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="E36" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="F36" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -2222,22 +2077,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>294</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>165</v>
+        <v>251</v>
       </c>
       <c r="D37" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="E37" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="F37" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -2245,22 +2100,22 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>293</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="D38" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="E38" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="F38" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -2268,22 +2123,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>292</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>173</v>
+        <v>253</v>
       </c>
       <c r="D39" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="E39" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F39" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -2291,22 +2146,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>291</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="D40" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="E40" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F40" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -2314,22 +2169,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>290</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>180</v>
+        <v>255</v>
       </c>
       <c r="D41" t="s">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F41" t="s">
-        <v>183</v>
+        <v>26</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2337,22 +2192,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>289</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>184</v>
+        <v>256</v>
       </c>
       <c r="D42" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E42" t="s">
         <v>186</v>
       </c>
       <c r="F42" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -2360,22 +2215,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>288</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="E43" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="F43" t="s">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -2383,22 +2238,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>287</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>192</v>
+        <v>257</v>
       </c>
       <c r="D44" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="E44" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F44" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -2406,22 +2261,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>286</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>196</v>
+        <v>258</v>
       </c>
       <c r="D45" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="E45" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F45" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -2429,22 +2284,22 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>285</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>200</v>
+        <v>259</v>
       </c>
       <c r="D46" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="E46" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="F46" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -2452,22 +2307,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>284</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="D47" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="E47" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="F47" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -2475,22 +2330,22 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>283</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>208</v>
+        <v>261</v>
       </c>
       <c r="D48" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="E48" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="F48" t="s">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -2498,22 +2353,22 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="D49" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="E49" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="F49" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -2521,22 +2376,22 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>281</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="D50" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="E50" t="s">
-        <v>217</v>
+        <v>58</v>
       </c>
       <c r="F50" t="s">
-        <v>218</v>
+        <v>153</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -2544,22 +2399,22 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="D51" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E51" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="F51" t="s">
-        <v>221</v>
+        <v>154</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -2567,22 +2422,22 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>279</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="D52" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E52" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="F52" t="s">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -2590,22 +2445,22 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>278</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>227</v>
+        <v>55</v>
       </c>
       <c r="E53" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="F53" t="s">
-        <v>228</v>
+        <v>156</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -2613,22 +2468,22 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="D54" t="s">
         <v>230</v>
       </c>
       <c r="E54" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="F54" t="s">
-        <v>232</v>
+        <v>157</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -2636,22 +2491,22 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="D55" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E55" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="F55" t="s">
-        <v>236</v>
+        <v>158</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -2659,22 +2514,22 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="D56" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E56" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="F56" t="s">
-        <v>240</v>
+        <v>159</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -2682,22 +2537,22 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>274</v>
+        <v>74</v>
       </c>
       <c r="C57" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="D57" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E57" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="F57" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -2705,22 +2560,22 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>273</v>
+        <v>73</v>
       </c>
       <c r="C58" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="D58" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E58" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="F58" t="s">
-        <v>247</v>
+        <v>160</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -2728,22 +2583,22 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>272</v>
+        <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="D59" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="E59" t="s">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="F59" t="s">
-        <v>251</v>
+        <v>161</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -2751,22 +2606,22 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>271</v>
+        <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D60" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="E60" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="F60" t="s">
-        <v>255</v>
+        <v>162</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -2774,22 +2629,22 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>270</v>
+        <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="D61" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="E61" t="s">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="F61" t="s">
-        <v>259</v>
+        <v>163</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -2797,22 +2652,22 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>269</v>
+        <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="D62" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="E62" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="F62" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -2820,22 +2675,22 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>268</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="D63" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="E63" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -2843,22 +2698,22 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>267</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="D64" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="E64" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="F64" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -2866,22 +2721,22 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>266</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="D65" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="E65" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="F65" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -2889,22 +2744,22 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>265</v>
+        <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
+        <v>238</v>
       </c>
       <c r="D66" t="s">
-        <v>86</v>
+        <v>201</v>
       </c>
       <c r="E66" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="F66" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -2912,22 +2767,22 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>264</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>90</v>
+        <v>202</v>
       </c>
       <c r="E67" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="F67" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -2935,22 +2790,22 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>263</v>
+        <v>63</v>
       </c>
       <c r="C68" t="s">
-        <v>93</v>
+        <v>239</v>
       </c>
       <c r="D68" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="E68" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="F68" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -2958,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>262</v>
+        <v>62</v>
       </c>
       <c r="C69" t="s">
-        <v>97</v>
+        <v>240</v>
       </c>
       <c r="D69" t="s">
-        <v>98</v>
+        <v>204</v>
       </c>
       <c r="E69" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="F69" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -2981,22 +2836,22 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>261</v>
+        <v>61</v>
       </c>
       <c r="C70" t="s">
-        <v>101</v>
+        <v>241</v>
       </c>
       <c r="D70" t="s">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="E70" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="F70" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -3004,26 +2859,26 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="C71" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="D71" t="s">
-        <v>106</v>
+        <v>206</v>
       </c>
       <c r="E71" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="F71" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H71">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G71">
     <sortCondition ref="A2:A71"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sectionA_1000.xlsx
+++ b/sectionA_1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruchirpurohit/Desktop/ASOC App/v8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EFCEC7-7DCB-1648-B1A4-6C2065381D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E56A9E8-97CC-E64A-B59F-6E0273DFBB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="3820" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="275">
   <si>
     <t>ID</t>
   </si>
@@ -855,6 +855,9 @@
   </si>
   <si>
     <t>Increase amplitude</t>
+  </si>
+  <si>
+    <t>both &lt;P=VI&gt; &amp; &lt;P = I^2R&gt;</t>
   </si>
 </sst>
 </file>
@@ -1233,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2802,7 +2805,7 @@
         <v>165</v>
       </c>
       <c r="F68" t="s">
-        <v>128</v>
+        <v>274</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>59</v>

--- a/sectionA_1000.xlsx
+++ b/sectionA_1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruchirpurohit/Desktop/ASOC App/v8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E56A9E8-97CC-E64A-B59F-6E0273DFBB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED694B61-88F3-A743-88A6-9303AC50312D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="3820" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="274">
   <si>
     <t>ID</t>
   </si>
@@ -419,9 +419,6 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>both b &amp; c</t>
-  </si>
-  <si>
     <t>Ampere's Law</t>
   </si>
   <si>
@@ -857,7 +854,7 @@
     <t>Increase amplitude</t>
   </si>
   <si>
-    <t>both &lt;P=VI&gt; &amp; &lt;P = I^2R&gt;</t>
+    <t>both &lt;P = VI&gt; and &lt;P = I^2R&gt;</t>
   </si>
 </sst>
 </file>
@@ -1234,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1600,13 +1597,13 @@
         <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F16" t="s">
         <v>127</v>
@@ -1626,7 +1623,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E17" t="s">
         <v>55</v>
@@ -1646,16 +1643,16 @@
         <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F18" t="s">
-        <v>128</v>
+        <v>273</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>59</v>
@@ -1669,16 +1666,16 @@
         <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>57</v>
@@ -1692,16 +1689,16 @@
         <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>58</v>
@@ -1715,16 +1712,16 @@
         <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>56</v>
@@ -1738,16 +1735,16 @@
         <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E22" t="s">
         <v>119</v>
       </c>
       <c r="F22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>58</v>
@@ -1767,10 +1764,10 @@
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>57</v>
@@ -1790,7 +1787,7 @@
         <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -1807,16 +1804,16 @@
         <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>56</v>
@@ -1830,16 +1827,16 @@
         <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>57</v>
@@ -1853,16 +1850,16 @@
         <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>57</v>
@@ -1876,16 +1873,16 @@
         <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>58</v>
@@ -1899,16 +1896,16 @@
         <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>57</v>
@@ -1922,16 +1919,16 @@
         <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>59</v>
@@ -1945,16 +1942,16 @@
         <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>57</v>
@@ -1991,16 +1988,16 @@
         <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>58</v>
@@ -2014,16 +2011,16 @@
         <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>58</v>
@@ -2037,16 +2034,16 @@
         <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>57</v>
@@ -2060,16 +2057,16 @@
         <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E36" t="s">
         <v>25</v>
       </c>
       <c r="F36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>59</v>
@@ -2083,16 +2080,16 @@
         <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>56</v>
@@ -2106,16 +2103,16 @@
         <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>59</v>
@@ -2129,16 +2126,16 @@
         <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>57</v>
@@ -2152,16 +2149,16 @@
         <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>57</v>
@@ -2175,13 +2172,13 @@
         <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D41" t="s">
         <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F41" t="s">
         <v>26</v>
@@ -2198,16 +2195,16 @@
         <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>57</v>
@@ -2224,10 +2221,10 @@
         <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F43" t="s">
         <v>21</v>
@@ -2244,16 +2241,16 @@
         <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>59</v>
@@ -2267,16 +2264,16 @@
         <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>58</v>
@@ -2290,16 +2287,16 @@
         <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>58</v>
@@ -2313,16 +2310,16 @@
         <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>57</v>
@@ -2336,16 +2333,16 @@
         <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D48" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>57</v>
@@ -2359,16 +2356,16 @@
         <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>57</v>
@@ -2382,16 +2379,16 @@
         <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E50" t="s">
         <v>58</v>
       </c>
       <c r="F50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>56</v>
@@ -2405,16 +2402,16 @@
         <v>80</v>
       </c>
       <c r="C51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>57</v>
@@ -2428,16 +2425,16 @@
         <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>58</v>
@@ -2460,7 +2457,7 @@
         <v>25</v>
       </c>
       <c r="F53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>58</v>
@@ -2474,16 +2471,16 @@
         <v>77</v>
       </c>
       <c r="C54" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E54" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>57</v>
@@ -2497,16 +2494,16 @@
         <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E55" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>58</v>
@@ -2520,16 +2517,16 @@
         <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D56" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>58</v>
@@ -2543,16 +2540,16 @@
         <v>74</v>
       </c>
       <c r="C57" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D57" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>57</v>
@@ -2566,16 +2563,16 @@
         <v>73</v>
       </c>
       <c r="C58" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>57</v>
@@ -2589,16 +2586,16 @@
         <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F59" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>59</v>
@@ -2612,16 +2609,16 @@
         <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>56</v>
@@ -2635,16 +2632,16 @@
         <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D61" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E61" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>57</v>
@@ -2750,13 +2747,13 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F66" t="s">
         <v>127</v>
@@ -2776,7 +2773,7 @@
         <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E67" t="s">
         <v>55</v>
@@ -2790,10 +2787,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C68" t="s">
         <v>239</v>
@@ -2805,18 +2802,18 @@
         <v>165</v>
       </c>
       <c r="F68" t="s">
-        <v>274</v>
+        <v>128</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C69" t="s">
         <v>240</v>
@@ -2831,15 +2828,15 @@
         <v>129</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C70" t="s">
         <v>241</v>
@@ -2854,35 +2851,12 @@
         <v>130</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>60</v>
-      </c>
-      <c r="C71" t="s">
-        <v>242</v>
-      </c>
-      <c r="D71" t="s">
-        <v>206</v>
-      </c>
-      <c r="E71" t="s">
-        <v>168</v>
-      </c>
-      <c r="F71" t="s">
-        <v>131</v>
-      </c>
-      <c r="G71" s="2" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G71">
-    <sortCondition ref="A2:A71"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G70">
+    <sortCondition ref="A2:A70"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
